--- a/resultados/huehue.xlsx
+++ b/resultados/huehue.xlsx
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
